--- a/Excel/04_03_Matching_Framework.xlsx
+++ b/Excel/04_03_Matching_Framework.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11102"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bosch-my.sharepoint.com/personal/nnr3fe_bosch_com/Documents/PersonalDrive/HTWG/BA/LaTex/Thesis/Excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nilsarnold/Documents/WIN-Studium/7. Semester/BA/Thesis/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="53" documentId="8_{F3ECA3D2-32AC-4160-8B23-5AFCB2956E87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8AAE2120-A746-40F4-BE24-D7F32A838880}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D0E63E-EBA2-4C49-ACFE-9EA71A4B6026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EB5A32BC-5E12-4407-AAFD-77198812C495}"/>
+    <workbookView xWindow="0" yWindow="620" windowWidth="28800" windowHeight="17380" xr2:uid="{EB5A32BC-5E12-4407-AAFD-77198812C495}"/>
   </bookViews>
   <sheets>
     <sheet name="4_3_1" sheetId="1" r:id="rId1"/>
@@ -202,7 +202,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -211,9 +211,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -553,15 +550,15 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="6" width="41.26953125" customWidth="1"/>
+    <col min="1" max="6" width="41.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -581,7 +578,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -597,11 +594,11 @@
       <c r="E2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="87" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -617,11 +614,11 @@
       <c r="E3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -637,11 +634,11 @@
       <c r="E4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="87" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -657,11 +654,11 @@
       <c r="E5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -677,11 +674,12 @@
       <c r="E6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="3" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/Excel/04_03_Matching_Framework.xlsx
+++ b/Excel/04_03_Matching_Framework.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11102"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nilsarnold/Documents/WIN-Studium/7. Semester/BA/Thesis/Excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bosch-my.sharepoint.com/personal/nnr3fe_bosch_com/Documents/PersonalDrive/HTWG/BA/LaTex/Thesis/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D0E63E-EBA2-4C49-ACFE-9EA71A4B6026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="67" documentId="13_ncr:1_{55D0E63E-EBA2-4C49-ACFE-9EA71A4B6026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AF3CB6BD-80BF-4574-A745-CBE8B07B1B6A}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="620" windowWidth="28800" windowHeight="17380" xr2:uid="{EB5A32BC-5E12-4407-AAFD-77198812C495}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{EB5A32BC-5E12-4407-AAFD-77198812C495}"/>
   </bookViews>
   <sheets>
-    <sheet name="4_3_1" sheetId="1" r:id="rId1"/>
+    <sheet name="Allgemein" sheetId="1" r:id="rId1"/>
+    <sheet name="4_3_1_Abweichungen" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="54">
   <si>
     <t>Kernkomponenten</t>
   </si>
@@ -144,13 +145,980 @@
   </si>
   <si>
     <t>P3, P4, P9, P11, P12, P14, P15, P16, P17, P18, P19, P20, P21</t>
+  </si>
+  <si>
+    <t>Daten/Datenquellen</t>
+  </si>
+  <si>
+    <t>Vorteil</t>
+  </si>
+  <si>
+    <t>Konkrete KI-Tools/Algorithmen</t>
+  </si>
+  <si>
+    <t>Beispielpaper (IDs)</t>
+  </si>
+  <si>
+    <t>P1, P3, P8, P12, P13, P14, P15, P19, P22</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Echtzeit-Datenerfassung</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Aggregation heterogener Datenquellen (Logs, Metriken) mithilfe von Stream-Processing-Frameworks wie Apache Kafka.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Anomalie-/Abweichungserkennung</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Die Komponente identifiziert Abweichungen vom Normalverhalten mithilfe von ML-Modellen. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Automatisierte Reaktion:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Das System wählt optimale Minderungsstrategien (z. B. Rollbacks, Isolierung kompromittierter Knoten oder Traffic-Drosselung). 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Orchestrierung</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Verwaltung der Bereitstellung und Skalierung der Modelle, oft basierend auf Kubernetes.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Echtzeitverarbeitung/Geringe Latenz</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Anomalieerkennung erfordert niedrige Latenz (ca. 50 ms), um schnell genug auf dynamische Cloud-Workloads und Bedrohungen zu reagieren. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hohe Datenqualität:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> KI-Modelle benötigen konsistente, qualitativ hochwertige und zugängliche Daten aus verschiedenen Quellen. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Transparenz/Erklärbarkeit (XAI):</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> DevOps-Teams benötigen erklärbare KI (Explainable AI), um die Entscheidungen des Modells zu verstehen, das Vertrauen zu gewährleisten und Compliance-Anforderungen zu erfüllen.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>System-/Performance-Metriken</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: CPU-Auslastung, Speicherauslastung, Netzwerk-Traffic, Latenz, Fehlerraten. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sicherheits-/Verhaltensdaten:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Systemprotokolle (Logs), Benutzerverhalten, und Daten aus Intrusion Detection Systems. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Datasets</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Es werden Datensätze wie </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BCCC-cPacket-Cloud-DDoS-2024</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> zur Intrusion Detection verwendet.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Proaktive Vorgänge</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Ermöglicht prädiktive Maßnahmen und Skalierungsaktionen, bevor Engpässe entstehen oder die Leistung abfällt. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Verbesserte Sicherheit:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Erreicht bis zu 95 % Erkennungsgenauigkeit und reduziert Falsch-Positive-Raten (False Positives) um bis zu 20 % im Vergleich zu traditionellen Systemen. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Erhöhte Zuverlässigkeit:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Automatisierte Rollbacks bei erkannten Anomalien minimieren Ausfallzeiten nach Deployments.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Datenungleichgewicht (Data Imbalance)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Echte Sicherheits-Datasets sind stark unausgewogen (wenige Angriffe vs. viele normale Samples), was das Training der Modelle erschwert. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Rechenkosten</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Deep-Learning-Modelle sind rechenintensiv und führen zu erheblichem Computational Overhead für Training und Inferenz. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Integration und Portabilität</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Probleme bei der Integration mit Legacy-Systemen und eingeschränkte Portabilität bei starker Bindung an spezifische Cloud-Dienste (z. B. AWS Boto3 SDK).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Unsupervised Learning (Anomaly Detection)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Algorithmen wie Autoencoder und Clustering (k-means), sowie Isolation Forests, um Abweichungen vom normalen Deployment- oder Systemverhalten zu identifizieren. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Klassifikation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Intrusion Detection): Algorithmen wie Decision Tree (DT), Random Forest (RF) und XGBoost liefern hohe Genauigkeit bei der Erkennung von Angriffen in unausgewogenen Daten. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Predictive Analytics/Scaling</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: LSTM (Long Short-Term Memory) neuronale Netzwerke werden zur Vorhersage des Ressourcenbedarfs (Autoscaling) verwendet. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Reinforcement Learning (RL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">) wird zur Optimierung der Reaktion (z. B. Auswahl der optimalen Gegenmaßnahme oder des Rollback-Zeitpunkts) genutzt. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Monitoring Tools</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: IBM Watson AI und Microsoft Sentinel zur Bedrohungserkennung.</t>
+    </r>
+  </si>
+  <si>
+    <t>P3, P13, P14, P15, P19</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Algorithmen: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LSTM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Lastvorhersage/Autoscaling),. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Reinforcement Learning (RL)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Optimierung von Ressourcenallokation/Skalierungsentscheidungen),. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Supervised Learning (SL)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Fehlerklassifikation),,. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Use Cases:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Intelligent Auto-Scaling</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (AWS EC2/RDS),,. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Predictive Failure Detection</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">,. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Predictive Maintenance</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Infrastruktur),,.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">LSTM-Modelle (für Zeitreihenprognosen) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Echtzeit-Monitoring</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Metriken/Logs)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Automatisierte Aktionsausführung</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Skalierung, Rollback) 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Kontinuierlicher Lernzyklus (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Regelmäßige Modellupdates)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>System-/Performance-Metriken</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: CPU, I/O, Netzwerk-Traffic, Speichernutzung </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Deployment-Daten:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Latenz, Fehlerraten, Transaktions-Durchsatz </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Logs/Ereignisse</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (für Fehlerprognose). </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Quellen:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> AWS CloudWatch (EC2, RDS)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Proaktive Maßnahmen</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Vermeidung von Engpässen/Ausfällen) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Kostenoptimierung</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (durch Right-sizing/Reduktion von Overprovisioning) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Verbesserte Zuverlässigkeit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Reduzierung der Downtime, z.B. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>30%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Erhöhte Ressourceneffizienz</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Computational Overhead (LSTM Training/Inferenz ist ressourcenintensiv) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Portabilitätsprobleme</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Bindung an Cloud-SDKs)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Modellkomplexität</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Schwierige Interpretation/Black-Box)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Latenz-Trade-offs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Downtime bei RDS-Skalierung)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hohe Datenqualität</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Historische Performance-Daten)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Niedrige Latenz</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Real-time Forecasting) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Multi-Metrik-Input</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (CPU, I/O, Netzwerk)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>XAI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Erklärbarkeit für Vertrauen)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,6 +1130,26 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -202,7 +1190,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -212,6 +1200,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -549,16 +1555,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0FF6E86-44D5-4F36-BF99-797CB5E37F1B}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="6" width="41.33203125" customWidth="1"/>
+    <col min="1" max="6" width="41.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -578,7 +1584,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -598,7 +1604,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="87" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -618,7 +1624,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -638,7 +1644,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="80" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="87" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -658,7 +1664,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="80" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -682,4 +1688,100 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C211364-E3EE-477B-A2B8-32D142AE530C}">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="18.90625" customWidth="1"/>
+    <col min="2" max="7" width="34.36328125" customWidth="1"/>
+    <col min="8" max="8" width="10.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" s="2"/>
+      <c r="B1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="348" x14ac:dyDescent="0.35">
+      <c r="A2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Excel/04_03_Matching_Framework.xlsx
+++ b/Excel/04_03_Matching_Framework.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bosch-my.sharepoint.com/personal/nnr3fe_bosch_com/Documents/PersonalDrive/HTWG/BA/LaTex/Thesis/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="67" documentId="13_ncr:1_{55D0E63E-EBA2-4C49-ACFE-9EA71A4B6026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AF3CB6BD-80BF-4574-A745-CBE8B07B1B6A}"/>
+  <xr:revisionPtr revIDLastSave="136" documentId="13_ncr:1_{55D0E63E-EBA2-4C49-ACFE-9EA71A4B6026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D14C8279-7F91-4E68-AEB3-562975D2275E}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{EB5A32BC-5E12-4407-AAFD-77198812C495}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{EB5A32BC-5E12-4407-AAFD-77198812C495}"/>
   </bookViews>
   <sheets>
     <sheet name="Allgemein" sheetId="1" r:id="rId1"/>
     <sheet name="4_3_1_Abweichungen" sheetId="2" r:id="rId2"/>
+    <sheet name="Use cases" sheetId="3" r:id="rId3"/>
+    <sheet name="Tabelle2 " sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="108">
   <si>
     <t>Kernkomponenten</t>
   </si>
@@ -162,10 +164,112 @@
     <t>P1, P3, P8, P12, P13, P14, P15, P19, P22</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
+    <t>P3, P13, P14, P15, P19</t>
+  </si>
+  <si>
+    <t>Generischer Use Case</t>
+  </si>
+  <si>
+    <t>Konkreter Platform-Task (Automatisierter Handgriff)</t>
+  </si>
+  <si>
+    <t>Empfohlene KI-Methode (Deep Learning vs. Statistik)</t>
+  </si>
+  <si>
+    <t>KPI / Mehrwert</t>
+  </si>
+  <si>
+    <t>Limitationen (Praktische Hürden)</t>
+  </si>
+  <si>
+    <t>Ressourcen-Optimierung (Auto-Scaling)</t>
+  </si>
+  <si>
+    <t>CI/CD Zuverlässigkeit</t>
+  </si>
+  <si>
+    <t>Security Ops</t>
+  </si>
+  <si>
+    <t>General Ops / Orchestrierung</t>
+  </si>
+  <si>
+    <t>Proaktive Anpassung der Kapazität von Cloud-Ressourcen (z.B. AWS EC2/RDS oder Kubernetes-Knoten) vor dem Erreichen von Engpässen,,.</t>
+  </si>
+  <si>
+    <t>LSTM (Deep Learning): Ideal für genaue Zeitreihen-Vorhersage der Workload-Muster,. Reinforcement Learning (RL): Zur dynamischen Optimierung der Allokationsentscheidung,.</t>
+  </si>
+  <si>
+    <t>Reduzierte Betriebskosten (Cloud Bill -X%) durch Vermeidung von Überprovisionierung,. Verbesserte Ressourcenauslastung (z.B. 25% Steigerung durch RL),.</t>
+  </si>
+  <si>
+    <t>Benötigt hochwertige, historische Leistungsdaten (z.B. 2 Monate Metrikdaten),. Kurze, unvermeidbare Downtime bei bestimmten Skalierungsaktionen (z.B. RDS-Modifikation),.</t>
+  </si>
+  <si>
+    <t>Auslösen eines automatisierten Rollbacks auf einen stabilen Zustand, wenn Anomalien (z.B. Latenz- oder Fehlerspitzen) unmittelbar nach einem Deployment erkannt werden,,.</t>
+  </si>
+  <si>
+    <t>Unsupervised Learning (z.B. Autoencoder, Isolation Forests): Erkennung von Abweichungen vom erlernten "Normalverhalten",. Reinforcement Learning (RL): Optimiert das Timing und die Strategie des Rollbacks.</t>
+  </si>
+  <si>
+    <t>Reduzierte Mean Time To Recovery (MTTR) (z.B. 30%-44% Reduktion),. Minimierung der Auswirkungen von Deployment-Fehlern.</t>
+  </si>
+  <si>
+    <t>Gefahr von False Positives (unnötige Rollbacks). Erfordert hohe Qualität und Verfügbarkeit von Echtzeit-Deployment-Metriken.</t>
+  </si>
+  <si>
+    <t>Prädiktive Fehlererkennung (Predictive Failure Detection): Vorhersage der Wahrscheinlichkeit eines Build- oder Deployment-Fehlers basierend auf Code-Änderungen und Testergebnissen,,.</t>
+  </si>
+  <si>
+    <t>Supervised Learning (z.B. Random Forests, Decision Trees): Ausreichend zur Klassifizierung von Fehlermustern,.</t>
+  </si>
+  <si>
+    <t>Reduzierte Build-Fehler (z.B. 15% weniger). Beschleunigte Fehlersuche (Troubleshooting),.</t>
+  </si>
+  <si>
+    <t>Modelle können schwierig zu interpretieren sein, was das Vertrauen der Entwickler in die Entscheidung mindert,. Erfordert ausreichende gelabelte Daten von historischen Fehlern für das Training.</t>
+  </si>
+  <si>
+    <t>Automatisierte Reaktion/Isolierung (Containment) eines kompromittierten Knotens oder Containers, sobald eine Intrusion (z.B. DDoS, Malware) erkannt wird,,,.</t>
+  </si>
+  <si>
+    <t>Ensemble Learning (XGBoost/Random Forest): Bietet hohe Genauigkeit bei der Klassifizierung von Bedrohungen,,. Reinforcement Learning (RL): Zur Auswahl der optimalen Abwehrmaßnahme.</t>
+  </si>
+  <si>
+    <t>Hohe Erkennungsgenauigkeit (z.B. 95%+),,. Reduzierte False Positive Rate (z.B. 20% weniger),. Schnellere Threat Mitigation (z.B. 30% schneller),.</t>
+  </si>
+  <si>
+    <t>Hoher Rechenaufwand für Deep-Learning-Modelle in Echtzeit-Szenarien,,. Notwendigkeit von Explainable AI (XAI) zur Überprüfung der Sicherheitsentscheidungen,.</t>
+  </si>
+  <si>
+    <t>Steuerung und Konfiguration von Kubernetes-Clustern (z.B. Hinzufügen von Volumes, Skalierung von Replicas) über natürliche Sprache (Natural Language Cluster Control).</t>
+  </si>
+  <si>
+    <t>Generative AI (LLMs), die mit Kubernetes-APIs und Backends verbunden sind (RAG-Prinzip).</t>
+  </si>
+  <si>
+    <t>Geringere Lernkurve und reduzierte Einarbeitungszeit für Administratoren. Reduktion der Komplexität manuller K8s-Verwaltungsaufgaben.</t>
+  </si>
+  <si>
+    <t>LLMs können erhebliche Rechenressourcen (GPUs) erfordern, selbst für die Inferenz,. Herausforderung der Daten-Privacy bei Texteingaben.</t>
+  </si>
+  <si>
+    <t>Anwendungsfeld</t>
+  </si>
+  <si>
+    <t>Ressourcenoptimierung</t>
+  </si>
+  <si>
+    <t>Sicherheit/Bedrohungserkennung</t>
+  </si>
+  <si>
+    <t>Betrieb/Orchestrierung (General Ops)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -174,7 +278,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="10"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -185,7 +289,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
+        <sz val="10"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -194,7 +298,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="10"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -205,7 +309,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
+        <sz val="10"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -214,7 +318,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="10"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -225,7 +329,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
+        <sz val="10"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -234,7 +338,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="10"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -246,7 +350,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
+        <sz val="10"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -255,7 +359,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="10"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -266,7 +370,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
+        <sz val="10"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -275,7 +379,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="10"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -285,7 +389,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
+        <sz val="10"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -294,7 +398,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="10"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -306,7 +410,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
+        <sz val="10"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -315,7 +419,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="10"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -325,7 +429,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
+        <sz val="10"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -334,7 +438,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="10"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -345,7 +449,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
+        <sz val="10"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -354,7 +458,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="10"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -364,7 +468,7 @@
     <r>
       <rPr>
         <i/>
-        <sz val="11"/>
+        <sz val="10"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -373,7 +477,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="10"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -385,7 +489,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
+        <sz val="10"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -394,7 +498,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="10"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -404,7 +508,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
+        <sz val="10"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -413,7 +517,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="10"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -424,7 +528,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
+        <sz val="10"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -433,7 +537,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="10"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -445,7 +549,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
+        <sz val="10"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -454,7 +558,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="10"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -464,7 +568,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
+        <sz val="10"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -473,7 +577,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="10"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -484,7 +588,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
+        <sz val="10"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -493,7 +597,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="10"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -505,7 +609,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
+        <sz val="10"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -514,7 +618,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="10"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -525,7 +629,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
+        <sz val="10"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -534,7 +638,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="10"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -544,7 +648,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
+        <sz val="10"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -553,7 +657,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="10"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -564,7 +668,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
+        <sz val="10"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -573,7 +677,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="10"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -583,7 +687,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
+        <sz val="10"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -592,7 +696,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="10"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -601,154 +705,13 @@
     </r>
   </si>
   <si>
-    <t>P3, P13, P14, P15, P19</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Algorithmen: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>LSTM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (Lastvorhersage/Autoscaling),. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Reinforcement Learning (RL)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (Optimierung von Ressourcenallokation/Skalierungsentscheidungen),. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Supervised Learning (SL)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (Fehlerklassifikation),,. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Use Cases:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Intelligent Auto-Scaling</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (AWS EC2/RDS),,. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Predictive Failure Detection</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">,. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Predictive Maintenance</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (Infrastruktur),,.</t>
-    </r>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">LSTM-Modelle (für Zeitreihenprognosen) </t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
+        <sz val="10"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -757,7 +720,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="10"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -767,7 +730,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
+        <sz val="10"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -776,7 +739,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="10"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -787,7 +750,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
+        <sz val="10"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -796,7 +759,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="10"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -808,7 +771,86 @@
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
+        <sz val="10"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hohe Datenqualität</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Historische Performance-Daten)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Niedrige Latenz</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Real-time Forecasting) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Multi-Metrik-Input</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (CPU, I/O, Netzwerk)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>XAI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Erklärbarkeit für Vertrauen)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -817,7 +859,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="10"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -827,7 +869,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
+        <sz val="10"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -836,7 +878,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="10"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -846,7 +888,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
+        <sz val="10"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -855,7 +897,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="10"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -865,7 +907,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
+        <sz val="10"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -874,7 +916,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="10"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -886,7 +928,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
+        <sz val="10"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -895,7 +937,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="10"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -905,7 +947,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
+        <sz val="10"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -914,7 +956,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="10"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -924,7 +966,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
+        <sz val="10"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -933,7 +975,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="10"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -943,7 +985,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
+        <sz val="10"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -952,7 +994,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="10"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -962,7 +1004,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
+        <sz val="10"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -977,7 +1019,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
+        <sz val="10"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -986,7 +1028,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="10"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -997,7 +1039,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
+        <sz val="10"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -1006,7 +1048,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="10"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -1017,7 +1059,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
+        <sz val="10"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -1026,7 +1068,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="10"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -1036,89 +1078,1838 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Hohe Datenqualität</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (Historische Performance-Daten)
+      <t xml:space="preserve">Algorithmen: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LSTM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Lastvorhersage/Autoscaling),. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Reinforcement Learning (RL)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Optimierung von Ressourcenallokation/Skalierungsentscheidungen),. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Supervised Learning (SL)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Fehlerklassifikation),,. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Use Cases:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Intelligent Auto-Scaling</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (AWS EC2/RDS),,. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Predictive Failure Detection</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">,. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Predictive Maintenance</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Infrastruktur),,.</t>
+    </r>
+  </si>
+  <si>
+    <t>Ziel</t>
+  </si>
+  <si>
+    <r>
+      <t>Datenquelle:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Historische Leistungsdaten</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (CPU-Auslastung, Netzwerk-Traffic, Disk I/O, Speicherkapazität). </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Nutzung:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Gesammelt über </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AWS CloudWatch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> oder </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Prometheus/Grafana</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (für Kubernetes). Die Daten werden zur </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Vorhersage zukünftiger Ressourcenbedarfstrends</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> und Workload-Muster genutzt.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Prädiktive Analytik</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Zeitreihenanalyse). </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Spezifische Algorithmen:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Long Short-Term Memory (LSTM) neuronale Netze</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Auch </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bestärkendes Lernen (RL)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> zur dynamischen Anpassung der Ressourcenzuteilung.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Reduzierung der Betriebskosten</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Steigerung der Ressourceneffizienz</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> und -auslastung (z. B. 25% Verbesserung der Ressourcenauslastung). </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Wartung der optimalen Anwendungs-Performance</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Überwachtes Lernen</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> für Fehler-Vorhersage. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Spezifische Algorithmen:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Random Forests</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, Entscheidungsbäume, Neuronale Netze. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Unüberwachtes Lernen</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> für Anomalieerkennung. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Spezifische Algorithmen:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Autoencoder</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, Isolation Forests, K-Means Clustering. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bestärkendes Lernen (RL)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> für optimierte Rollbacks und Testpriorisierung. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Spezifische Algorithmen:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Deep Q-Networks (DQN)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, PPO, Q-Learning.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Reduzierung der Deployment-Zeit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (z. B. 40% Reduzierung der Testzeit). </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Reduzierung der Fehlerraten</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Error Rate Reduction, z. B. 15%). </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Minimierung der Downtime</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (z. B. 30% Reduzierung durch proaktive Rollbacks). </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Verbesserung der Software-Zuverlässigkeit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Echtzeit-Anomalieerkennung</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> und Identifizierung von Abweichungen im Verhalten. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bedrohungsklassifizierung</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (benign/malicious). </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Automatisierte Threat Mitigation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (z. B. Isolierung von Knoten, Traffic-Drosselung).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Datenquelle:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Netzwerk-Traffic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>System-Logs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Benutzerverhalten</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Nutzung:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Analyse großer Datensätze, um Muster zu erkennen, die auf </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hochentwickelte Bedrohungen</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> hindeuten (z. B. Zero-Day-Exploits, DDoS-Angriffe). Daten werden </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>klassifiziert</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> zur Unterscheidung von Anomalien.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Unüberwachtes Lernen</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (für Anomalieerkennung). </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Spezifische Algorithmen:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Autoencoder</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, Clustering. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Überwachtes Lernen</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (für Klassifikation). </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Spezifische Algorithmen:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Random Forests (RF)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>XGBoost</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, Entscheidungsbäume (DT). </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bestärkendes Lernen (RL)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> zur Auswahl optimaler Abwehrmaßnahmen.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Hohe Erkennungsgenauigkeit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (z. B. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>95%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Genauigkeit). </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Reduzierung von False Positives</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (z. B. um 20%). </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Schnellere Threat Mitigation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (z. B. 30% schneller). </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Compliance</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> mit regulatorischen Standards (z. B. GDPR, HIPAA).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Intelligente Automatisierung</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> komplexer Kubernetes-Operationen. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Fehlertoleranz</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> und </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Selbstheilung</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Fault Tolerance/Self-Healing). </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Dynamisches Load Balancing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Predictive Maintenance (PM)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cluster-Steuerung</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> mittels natürlicher Sprache (NLP).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Datenquelle:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>System-Performance-Metriken</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Ressourcenauslastung, Latenz, Durchsatz, Fehlerraten). </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Historisches Cluster-Verhalten</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Logs und Traces</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Nutzung:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Training von Agenten zur </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Optimalstrategie-Findung</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> für Lastverteilung und Fehlerbehebung. NLP-Analyse für Cluster-Steuerungsbefehle.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Bestärkendes Lernen (RL)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> für dynamische Steuerung und Optimierung. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Spezifische Algorithmen:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Proximal Policy Optimization (PPO)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Deep Q-Networks (DQN)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, Q-Learning. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Natural Language Processing (NLP)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> für Cluster-Steuerung. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Prädiktive Modelle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Supervised Learning) für PM.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Reduzierung der MTTR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Mean Time To Resolution) (z. B. 44% Reduzierung). </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Verbesserung der Fehlertoleranz</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (z. B. 40% schnellere Fehlerbehebungszeit). </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Reduzierung manueller Aufgaben</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (z. B. um 52%). </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Verbesserte Lastverteilung</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Load Distribution Fairness, z. B. 30%).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Vorausschauendes Auto-Scaling</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> von Cloud-Ressourcen (z. B. AWS EC2, RDS, oder Kubernetes-Cluster). 
 </t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Niedrige Latenz</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (Real-time Forecasting) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Multi-Metrik-Input</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (CPU, I/O, Netzwerk)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>XAI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (Erklärbarkeit für Vertrauen)</t>
-    </r>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Dynamische Anpassung</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> der VM-Konfigurationen und Right-sizing.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Prädiktive Fehlererkennung</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in Build- und Deployment-Pipelines. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Automatisierte Rollbacks</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> bei erkannten Anomalien. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Adaptive Deployment-Strategien</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (z. B. dynamische Anpassung von Blue/Green- oder Canary-Rollouts). 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Generierung und Priorisierung von Test-Cases</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Datenquelle:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Historische Build-Logs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (mit Zeitstempeln, Fehlermeldungen, Warnungen). </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test-Ergebnisse</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Pass/Fail-Raten). 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>System-Performance-Metriken</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Latenz, Fehlerraten, Ressourcennutzung während des Deployments). 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Nutzung:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Analyse von Mustern, die auf </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bevorstehende Fehler</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> hindeuten. Kontinuierliches Monitoring zur Auslösung von </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>automatisierten Korrekturmaßnahmen</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Konkrete Plattform Task</t>
+  </si>
+  <si>
+    <t>Verwendete Daten</t>
+  </si>
+  <si>
+    <t>KI-Methode</t>
+  </si>
+  <si>
+    <t>Zuverlässigkeit/ 
+CI/CD-Automation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1136,20 +2927,62 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Aptos Display"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Display"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Aptos Display"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
-      <sz val="11"/>
+      <sz val="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1190,7 +3023,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1201,23 +3034,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1694,8 +3546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C211364-E3EE-477B-A2B8-32D142AE530C}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1705,80 +3557,305 @@
     <col min="8" max="8" width="10.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="2"/>
+    <row r="1" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+      <c r="A1" s="8"/>
       <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="348" x14ac:dyDescent="0.35">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:8" ht="273" x14ac:dyDescent="0.35">
+      <c r="A2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="130" x14ac:dyDescent="0.35">
+      <c r="A3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="H3" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="4" t="s">
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00F9E187-BB62-4909-B8A9-CAF2FC2AE3DA}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="29" customWidth="1"/>
+    <col min="2" max="5" width="34.36328125" style="6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="B1" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="C1" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="D1" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="E1" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>40</v>
-      </c>
     </row>
-    <row r="3" spans="1:8" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="7" t="s">
+    <row r="2" spans="1:5" ht="87" x14ac:dyDescent="0.35">
+      <c r="A2" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="87" x14ac:dyDescent="0.35">
+      <c r="A4" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="87" x14ac:dyDescent="0.35">
+      <c r="A5" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3" s="7" t="s">
+      <c r="B5" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>47</v>
+      <c r="B6" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{815E7853-36DE-4319-B6BC-FB361043A673}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="5" width="42" customWidth="1"/>
+    <col min="6" max="7" width="27" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="145" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/04_03_Matching_Framework.xlsx
+++ b/Excel/04_03_Matching_Framework.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bosch-my.sharepoint.com/personal/nnr3fe_bosch_com/Documents/PersonalDrive/HTWG/BA/LaTex/Thesis/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="136" documentId="13_ncr:1_{55D0E63E-EBA2-4C49-ACFE-9EA71A4B6026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D14C8279-7F91-4E68-AEB3-562975D2275E}"/>
+  <xr:revisionPtr revIDLastSave="141" documentId="13_ncr:1_{55D0E63E-EBA2-4C49-ACFE-9EA71A4B6026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D4AFF292-7AA5-46CA-A6AF-E9FE67F9F532}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{EB5A32BC-5E12-4407-AAFD-77198812C495}"/>
   </bookViews>
@@ -1219,444 +1219,6 @@
   </si>
   <si>
     <r>
-      <t>Datenquelle:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Historische Leistungsdaten</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (CPU-Auslastung, Netzwerk-Traffic, Disk I/O, Speicherkapazität). </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Nutzung:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Gesammelt über </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>AWS CloudWatch</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> oder </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Prometheus/Grafana</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (für Kubernetes). Die Daten werden zur </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Vorhersage zukünftiger Ressourcenbedarfstrends</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> und Workload-Muster genutzt.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Prädiktive Analytik</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (Zeitreihenanalyse). </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Spezifische Algorithmen:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Long Short-Term Memory (LSTM) neuronale Netze</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. Auch </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Bestärkendes Lernen (RL)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> zur dynamischen Anpassung der Ressourcenzuteilung.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Reduzierung der Betriebskosten</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Steigerung der Ressourceneffizienz</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> und -auslastung (z. B. 25% Verbesserung der Ressourcenauslastung). </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Wartung der optimalen Anwendungs-Performance</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Überwachtes Lernen</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> für Fehler-Vorhersage. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Spezifische Algorithmen:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Random Forests</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, Entscheidungsbäume, Neuronale Netze. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Unüberwachtes Lernen</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> für Anomalieerkennung. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Spezifische Algorithmen:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Autoencoder</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, Isolation Forests, K-Means Clustering. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Bestärkendes Lernen (RL)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> für optimierte Rollbacks und Testpriorisierung. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Spezifische Algorithmen:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Deep Q-Networks (DQN)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, PPO, Q-Learning.</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>Reduzierung der Deployment-Zeit</t>
     </r>
     <r>
@@ -2903,6 +2465,373 @@
   <si>
     <t>Zuverlässigkeit/ 
 CI/CD-Automation</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>für Fehler-Vorhersage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Random Forests,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Entscheidungsbäume, Neuronale Netze. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>UL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> für Anomalieerkennung (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Autoencoder</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, Isolation Forests, K-Means Clustering.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> für optimierte Rollbacks und Testpriorisierung. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(Deep Q-Networks (DQN), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PPO, Q-Learning)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Prädiktive Analytik</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Zeitreihenanalyse). </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Spezifische Algorithmen:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Long Short-Term Memory (LSTM) neuronale Netze</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> zur dynamischen Anpassung der Ressourcenzuteilung.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Reduzierung der Betriebskosten</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Steigerung der Ressourceneffizienz</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> und -auslastung (z. B. 25% Verbesserung der Ressourcenauslastung). 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Wartung der optimalen Anwendungs-Performance</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Datenquelle:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Historische Leistungsdate</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (CPU-Auslastung, Netzwerk-Traffic, Disk I/O, Speicherkapazität). 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Nutzung:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Gesammelt über </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AWS CloudWatch oder Prometheus/Grafana</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (für Kubernetes). 
+Die Daten werden zur </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Vorhersage zukünftiger Ressourcenbedarfstrends</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> und Workload-Muster genutzt.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -3764,7 +3693,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3778,50 +3707,50 @@
         <v>71</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E1" s="16" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="116" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>72</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="145" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
@@ -3829,16 +3758,16 @@
         <v>73</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
@@ -3846,16 +3775,16 @@
         <v>74</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/04_03_Matching_Framework.xlsx
+++ b/Excel/04_03_Matching_Framework.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bosch-my.sharepoint.com/personal/nnr3fe_bosch_com/Documents/PersonalDrive/HTWG/BA/LaTex/Thesis/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="141" documentId="13_ncr:1_{55D0E63E-EBA2-4C49-ACFE-9EA71A4B6026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D4AFF292-7AA5-46CA-A6AF-E9FE67F9F532}"/>
+  <xr:revisionPtr revIDLastSave="154" documentId="13_ncr:1_{55D0E63E-EBA2-4C49-ACFE-9EA71A4B6026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7378610D-D0B9-4B8A-ADED-55C9E7D54C38}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{EB5A32BC-5E12-4407-AAFD-77198812C495}"/>
   </bookViews>
@@ -263,9 +263,6 @@
     <t>Sicherheit/Bedrohungserkennung</t>
   </si>
   <si>
-    <t>Betrieb/Orchestrierung (General Ops)</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -1215,6 +1212,9 @@
     </r>
   </si>
   <si>
+    <t>Betrieb/Orchestrierung</t>
+  </si>
+  <si>
     <t>Ziel</t>
   </si>
   <si>
@@ -1350,846 +1350,6 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> (z. B. Isolierung von Knoten, Traffic-Drosselung).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Datenquelle:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Netzwerk-Traffic</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>System-Logs</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Benutzerverhalten</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Nutzung:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Analyse großer Datensätze, um Muster zu erkennen, die auf </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>hochentwickelte Bedrohungen</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> hindeuten (z. B. Zero-Day-Exploits, DDoS-Angriffe). Daten werden </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>klassifiziert</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> zur Unterscheidung von Anomalien.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Unüberwachtes Lernen</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (für Anomalieerkennung). </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Spezifische Algorithmen:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Autoencoder</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, Clustering. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Überwachtes Lernen</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (für Klassifikation). </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Spezifische Algorithmen:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Random Forests (RF)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>XGBoost</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, Entscheidungsbäume (DT). </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Bestärkendes Lernen (RL)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> zur Auswahl optimaler Abwehrmaßnahmen.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Hohe Erkennungsgenauigkeit</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (z. B. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>95%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Genauigkeit). </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Reduzierung von False Positives</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (z. B. um 20%). </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Schnellere Threat Mitigation</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (z. B. 30% schneller). </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Compliance</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> mit regulatorischen Standards (z. B. GDPR, HIPAA).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Intelligente Automatisierung</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> komplexer Kubernetes-Operationen. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Fehlertoleranz</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> und </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Selbstheilung</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (Fault Tolerance/Self-Healing). </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Dynamisches Load Balancing</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Predictive Maintenance (PM)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Cluster-Steuerung</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> mittels natürlicher Sprache (NLP).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Datenquelle:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>System-Performance-Metriken</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (Ressourcenauslastung, Latenz, Durchsatz, Fehlerraten). </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Historisches Cluster-Verhalten</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Logs und Traces</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Nutzung:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Training von Agenten zur </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Optimalstrategie-Findung</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> für Lastverteilung und Fehlerbehebung. NLP-Analyse für Cluster-Steuerungsbefehle.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Bestärkendes Lernen (RL)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> für dynamische Steuerung und Optimierung. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Spezifische Algorithmen:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Proximal Policy Optimization (PPO)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Deep Q-Networks (DQN)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, Q-Learning. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Natural Language Processing (NLP)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> für Cluster-Steuerung. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Prädiktive Modelle</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (Supervised Learning) für PM.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Reduzierung der MTTR</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (Mean Time To Resolution) (z. B. 44% Reduzierung). </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Verbesserung der Fehlertoleranz</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (z. B. 40% schnellere Fehlerbehebungszeit). </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Reduzierung manueller Aufgaben</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (z. B. um 52%). </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Verbesserte Lastverteilung</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (Load Distribution Fairness, z. B. 30%).</t>
     </r>
   </si>
   <si>
@@ -2468,125 +1628,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">SL </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>für Fehler-Vorhersage</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(Random Forests,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Entscheidungsbäume, Neuronale Netze. 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>UL</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> für Anomalieerkennung (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Autoencoder</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, Isolation Forests, K-Means Clustering.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>RL</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> für optimierte Rollbacks und Testpriorisierung. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">(Deep Q-Networks (DQN), </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PPO, Q-Learning)</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>Prädiktive Analytik</t>
     </r>
     <r>
@@ -2831,6 +1872,836 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> und Workload-Muster genutzt.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">UL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>für Anomalieerkennung (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Autoencoder,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Clustering. 
+SL für Klassifikation </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Random Forests (RF), XGBoost, Entscheidungsbäume (DT)).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> zur Auswahl optimaler Abwehrmaßnahmen.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Hohe Erkennungsgenauigkeit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (z. B. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>95%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Genauigkeit). 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Reduzierung von False Positives</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (z. B. um 20%). </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Schnellere Threat Mitigation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (z. B. 30% schneller).
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Compliance</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> mit regulatorischen Standards (z. B. GDPR, HIPAA).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Datenquelle:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Netzwerk-Traffic, System-Logs, Benutzerverhalten. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Nutzung:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Analyse großer Datensätze, um Muster zu erkennen, die auf </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hochentwickelte Bedrohungen</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> hindeuten (z. B. Zero-Day-Exploits, DDoS-Angriffe). 
+Daten werden </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>klassifiziert</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> zur Unterscheidung von Anomalien.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Datenquelle:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>System-Performance-Metriken</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Ressourcenauslastung, Latenz, Durchsatz, Fehlerraten). 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Historisches Cluster-Verhalten</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Logs und Traces</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Nutzung:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Training von Agenten zur </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Optimalstrategie-Findung</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> für Lastverteilung und Fehlerbehebung. NLP-Analyse für Cluster-Steuerungsbefehle.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">RL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>für dynamische Steuerung und Optimierung (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Proximal Policy Optimization (PPO</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Deep Q-Networks (DQN), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Q-Learning.)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NLP)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> für Cluster-Steuerung. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Prädiktive Modelle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Supervised Learning) für PM.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Reduzierung der MTTR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Mean Time To Resolution) (z. B. 44% Reduzierung). </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Verbesserung der Fehlertoleranz</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (z. B. 40% schnellere Fehlerbehebungszeit). 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Reduzierung manueller Aufgaben</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (z. B. um 52%). </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Verbesserte Lastverteilung</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Load Distribution Fairness, z. B. 30%).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Intelligente Automatisierung</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> komplexer Kubernetes-Operationen. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Fehlertoleranz</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> und </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Selbstheilung</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Fault Tolerance/Self-Healing). 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Dynamisches Load Balancing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Predictive Maintenance</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cluster-Steuerung</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> mittels natürlicher Sprache (NLP).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">für Fehler-Vorhersage </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Random Forests,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Entscheidungsbäume, Neuronale Netze. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>UL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> für Anomalieerkennung (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Autoencoder</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, Isolation Forests, K-Means Clustering.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> für optimierte Rollbacks und Testpriorisierung. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(Deep Q-Networks (DQN), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PPO, Q-Learning)</t>
     </r>
   </si>
 </sst>
@@ -3515,22 +3386,22 @@
         <v>5</v>
       </c>
       <c r="B2" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="D2" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="E2" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="F2" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="G2" s="12" t="s">
         <v>79</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>80</v>
       </c>
       <c r="H2" s="13" t="s">
         <v>40</v>
@@ -3541,22 +3412,22 @@
         <v>6</v>
       </c>
       <c r="B3" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="D3" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="E3" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="F3" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="G3" s="14" t="s">
         <v>85</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>86</v>
       </c>
       <c r="H3" s="15" t="s">
         <v>41</v>
@@ -3693,7 +3564,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3707,13 +3578,13 @@
         <v>71</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="E1" s="16" t="s">
         <v>87</v>
@@ -3724,36 +3595,36 @@
         <v>72</v>
       </c>
       <c r="B2" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>105</v>
-      </c>
       <c r="E2" s="16" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="145" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E3" s="16" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="116" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>73</v>
       </c>
@@ -3761,30 +3632,30 @@
         <v>89</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="129.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/04_03_Matching_Framework.xlsx
+++ b/Excel/04_03_Matching_Framework.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bosch-my.sharepoint.com/personal/nnr3fe_bosch_com/Documents/PersonalDrive/HTWG/BA/LaTex/Thesis/Excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nilsarnold/Documents/WIN-Studium/7. Semester/BA/Thesis/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="154" documentId="13_ncr:1_{55D0E63E-EBA2-4C49-ACFE-9EA71A4B6026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7378610D-D0B9-4B8A-ADED-55C9E7D54C38}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9953CF26-1ECC-3D47-A472-082AC2146EE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{EB5A32BC-5E12-4407-AAFD-77198812C495}"/>
+    <workbookView xWindow="28800" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="3" xr2:uid="{EB5A32BC-5E12-4407-AAFD-77198812C495}"/>
   </bookViews>
   <sheets>
     <sheet name="Allgemein" sheetId="1" r:id="rId1"/>
     <sheet name="4_3_1_Abweichungen" sheetId="2" r:id="rId2"/>
     <sheet name="Use cases" sheetId="3" r:id="rId3"/>
     <sheet name="Tabelle2 " sheetId="5" r:id="rId4"/>
+    <sheet name="Tabelle1" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="142">
   <si>
     <t>Kernkomponenten</t>
   </si>
@@ -2702,6 +2703,450 @@
         <scheme val="minor"/>
       </rPr>
       <t>PPO, Q-Learning)</t>
+    </r>
+  </si>
+  <si>
+    <t>Architekturpattern (generischer Use Case)</t>
+  </si>
+  <si>
+    <t>Konkrete Plattform Aufgabe</t>
+  </si>
+  <si>
+    <t>Daten (Quellen &amp; Zweck)</t>
+  </si>
+  <si>
+    <t>KI-Methode &amp; Tools</t>
+  </si>
+  <si>
+    <t>Predictive Auto-Scaling</t>
+  </si>
+  <si>
+    <t>Vorausschauende Skalierung von EC2- und RDS-Instanzen.</t>
+  </si>
+  <si>
+    <t>AI-driven Observability</t>
+  </si>
+  <si>
+    <t>Root Cause Analysis (RCA) und Log-Analyse im Kubernetes-Cluster.</t>
+  </si>
+  <si>
+    <t>Predictive Build Failure Detection</t>
+  </si>
+  <si>
+    <t>Vorhersage von Build- oder Deployment-Fehlern in CI/CD-Pipelines.</t>
+  </si>
+  <si>
+    <t>Anomaly-driven Self-Healing</t>
+  </si>
+  <si>
+    <t>Automatisierte Rollbacks bei anomalem Verhalten nach einem Release.</t>
+  </si>
+  <si>
+    <t>Intelligent Threat Detection</t>
+  </si>
+  <si>
+    <t>Echtzeit-Erkennung von Sicherheitsbedrohungen wie DDoS oder Insider-Angriffen.</t>
+  </si>
+  <si>
+    <t>Test Optimization</t>
+  </si>
+  <si>
+    <t>Intelligente Priorisierung von Testfällen in der Pipeline.</t>
+  </si>
+  <si>
+    <r>
+      <t>CloudWatch Metriken:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> CPU-Last, Netzwerk-Traffic, Disk I/O. Daten dienen der Vorhersage von Lastspitzen.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>LSTM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (Long Short-Term Memory) für Zeitreihen-Vorhersage. Tool: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>AWS Boto3 SDK</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> zur Ausführung.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Kostenoptimierung</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> und Vermeidung von Performance-Engpässen.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Logs &amp; Events:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Fehler-Patterns aus System-Logs und Kubernetes-Events.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>LLMs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (Natural Language Processing) zur Interpretation komplexer Fehlermeldungen. Tool: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>K8sGPT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Reduktion der </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>MTTR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (Mean Time To Resolution).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Pipeline-Historie:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Build-Logs, Testresultate, Code-Änderungen und Konfigurationsdaten.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Supervised Learning:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Decision Trees oder Random Forests. Tool: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Jenkins X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> mit ML-Modellen.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Effizienzsteigerung</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> durch frühes Abfangen fehlerhafter Deployments.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Real-time Metriken:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Latenz, Fehlerraten und Ressourcenverbrauch während des Rollouts.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Unsupervised Learning:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Autoencoder oder Isolation Forests zur Erkennung von Abweichungen. Auch </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Reinforcement Learning</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (DQN) für Optimierung.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Systemstabilität</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> und Minimierung der Auswirkungen fehlerhafter Code-Stände.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Netzwerkdaten:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Traffic-Muster, System-Logs und Benutzerverhaltensdaten.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Deep Learning:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> CNNs zur Erkennung komplexer Angriffsmuster. Tools: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>IBM Watson</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Microsoft Sentinel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Erhöhung der </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Erkennungsgenauigkeit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (bis zu 95%) und Reduktion von False Positives.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Test-Metriken:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Historische Pass/Fail-Raten, Ausführungszeit und Code-Abdeckung.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Reinforcement Learning</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (PPO, DQN) zum Finden der effizientesten Testsequenz.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Reduktion der </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Pipeline-Laufzeit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ohne Qualitätsverlust.</t>
     </r>
   </si>
 </sst>
@@ -2709,7 +3154,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2719,13 +3164,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -2787,6 +3225,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2823,7 +3274,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2837,39 +3288,51 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3211,12 +3674,12 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="6" width="41.36328125" customWidth="1"/>
+    <col min="1" max="6" width="41.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -3236,7 +3699,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -3256,7 +3719,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="87" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -3276,7 +3739,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -3296,7 +3759,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="87" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -3316,7 +3779,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -3350,14 +3813,14 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.90625" customWidth="1"/>
-    <col min="2" max="7" width="34.36328125" customWidth="1"/>
-    <col min="8" max="8" width="10.90625" customWidth="1"/>
+    <col min="1" max="1" width="18.83203125" customWidth="1"/>
+    <col min="2" max="7" width="34.33203125" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A1" s="8"/>
       <c r="B1" s="9" t="s">
         <v>0</v>
@@ -3381,7 +3844,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="273" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="285" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>5</v>
       </c>
@@ -3407,7 +3870,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="130" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="135" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
         <v>6</v>
       </c>
@@ -3442,17 +3905,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00F9E187-BB62-4909-B8A9-CAF2FC2AE3DA}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="2" max="5" width="34.36328125" style="6" customWidth="1"/>
+    <col min="2" max="5" width="34.33203125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>42</v>
       </c>
@@ -3469,7 +3930,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="87" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="96" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>47</v>
       </c>
@@ -3486,7 +3947,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="96" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>48</v>
       </c>
@@ -3503,7 +3964,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="87" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>48</v>
       </c>
@@ -3520,7 +3981,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="87" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="96" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>49</v>
       </c>
@@ -3537,7 +3998,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>50</v>
       </c>
@@ -3564,16 +4025,16 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="5" width="42" customWidth="1"/>
     <col min="6" max="7" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="27.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
         <v>71</v>
       </c>
@@ -3590,7 +4051,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="116" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="128" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>72</v>
       </c>
@@ -3607,7 +4068,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="145" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="144" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>96</v>
       </c>
@@ -3624,7 +4085,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="116" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="112" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>73</v>
       </c>
@@ -3641,7 +4102,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="129.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="129.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>86</v>
       </c>
@@ -3661,4 +4122,177 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A53DDC6C-0C83-564C-8430-7F6CF36F51DF}">
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView zoomScale="132" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="7" width="25.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A1" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="60" x14ac:dyDescent="0.2">
+      <c r="A2" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.2">
+      <c r="A3" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="60" x14ac:dyDescent="0.2">
+      <c r="A4" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="90" x14ac:dyDescent="0.2">
+      <c r="A5" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="60" x14ac:dyDescent="0.2">
+      <c r="A6" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="60" x14ac:dyDescent="0.2">
+      <c r="A7" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="18"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="18"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="17"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="18"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="18"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="17"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="18"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="18"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>